--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gdf11-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf11</t>
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H2">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I2">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J2">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>1.151453608766555</v>
+        <v>1.411809700582</v>
       </c>
       <c r="R2">
-        <v>10.363082478899</v>
+        <v>12.706287305238</v>
       </c>
       <c r="S2">
-        <v>0.029427353102527</v>
+        <v>0.07394196888106853</v>
       </c>
       <c r="T2">
-        <v>0.02942735310252701</v>
+        <v>0.07394196888106851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H3">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I3">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J3">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.08240180348011111</v>
+        <v>0.1502416360565555</v>
       </c>
       <c r="R3">
-        <v>0.7416162313210001</v>
+        <v>1.352174724509</v>
       </c>
       <c r="S3">
-        <v>0.002105918075059751</v>
+        <v>0.007868739231183244</v>
       </c>
       <c r="T3">
-        <v>0.002105918075059751</v>
+        <v>0.007868739231183244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H4">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I4">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J4">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>0.558205876097889</v>
+        <v>0.4528592449682223</v>
       </c>
       <c r="R4">
-        <v>5.023852884881</v>
+        <v>4.075733204714</v>
       </c>
       <c r="S4">
-        <v>0.01426589946375192</v>
+        <v>0.02371800121867742</v>
       </c>
       <c r="T4">
-        <v>0.01426589946375192</v>
+        <v>0.02371800121867742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H5">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I5">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J5">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>1.115166784105</v>
+        <v>0.8409272561865554</v>
       </c>
       <c r="R5">
-        <v>10.036501056945</v>
+        <v>7.568345305678998</v>
       </c>
       <c r="S5">
-        <v>0.02849998165294777</v>
+        <v>0.04404263335388318</v>
       </c>
       <c r="T5">
-        <v>0.02849998165294777</v>
+        <v>0.04404263335388318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H6">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I6">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J6">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.1939768933356667</v>
+        <v>0.4356177078518889</v>
       </c>
       <c r="R6">
-        <v>1.745792040021</v>
+        <v>3.920559370667</v>
       </c>
       <c r="S6">
-        <v>0.004957409044064371</v>
+        <v>0.02281499481463291</v>
       </c>
       <c r="T6">
-        <v>0.004957409044064371</v>
+        <v>0.0228149948146329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7911256666666667</v>
+        <v>1.442444333333333</v>
       </c>
       <c r="H7">
-        <v>2.373377</v>
+        <v>4.327332999999999</v>
       </c>
       <c r="I7">
-        <v>0.09841665988682347</v>
+        <v>0.1935924704900452</v>
       </c>
       <c r="J7">
-        <v>0.09841665988682348</v>
+        <v>0.1935924704900451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>0.7497094468910002</v>
+        <v>0.4048989325144444</v>
       </c>
       <c r="R7">
-        <v>6.747385022019</v>
+        <v>3.644090392629999</v>
       </c>
       <c r="S7">
-        <v>0.01916009854847265</v>
+        <v>0.0212061329905999</v>
       </c>
       <c r="T7">
-        <v>0.01916009854847265</v>
+        <v>0.0212061329905999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I8">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J8">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>4.118994789891667</v>
+        <v>2.76992092905</v>
       </c>
       <c r="R8">
-        <v>37.070953109025</v>
+        <v>24.92928836145</v>
       </c>
       <c r="S8">
-        <v>0.1052679093510795</v>
+        <v>0.1450715397793371</v>
       </c>
       <c r="T8">
-        <v>0.1052679093510795</v>
+        <v>0.1450715397793371</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I9">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J9">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.2947688006083334</v>
@@ -1013,10 +1013,10 @@
         <v>2.652919205475</v>
       </c>
       <c r="S9">
-        <v>0.007533317463307731</v>
+        <v>0.01543818934854057</v>
       </c>
       <c r="T9">
-        <v>0.007533317463307735</v>
+        <v>0.01543818934854057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I10">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J10">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>1.996821302941667</v>
+        <v>0.8884938954833336</v>
       </c>
       <c r="R10">
-        <v>17.971391726475</v>
+        <v>7.996445059350002</v>
       </c>
       <c r="S10">
-        <v>0.05103216066799061</v>
+        <v>0.04653388338652532</v>
       </c>
       <c r="T10">
-        <v>0.05103216066799064</v>
+        <v>0.04653388338652531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I11">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J11">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>3.989189089875001</v>
+        <v>1.649869671358333</v>
       </c>
       <c r="R11">
-        <v>35.90270180887501</v>
+        <v>14.848827042225</v>
       </c>
       <c r="S11">
-        <v>0.1019505041685963</v>
+        <v>0.08641009609659572</v>
       </c>
       <c r="T11">
-        <v>0.1019505041685963</v>
+        <v>0.08641009609659572</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I12">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J12">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.6938966597750001</v>
+        <v>0.8546666066583335</v>
       </c>
       <c r="R12">
-        <v>6.245069937975001</v>
+        <v>7.691999459925001</v>
       </c>
       <c r="S12">
-        <v>0.01773370795696799</v>
+        <v>0.04476221661259823</v>
       </c>
       <c r="T12">
-        <v>0.01773370795696799</v>
+        <v>0.04476221661259822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>8.490075000000001</v>
       </c>
       <c r="I13">
-        <v>0.3520573527461599</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="J13">
-        <v>0.35205735274616</v>
+        <v>0.3798216115782563</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>2.681870361225001</v>
+        <v>0.7943974509166667</v>
       </c>
       <c r="R13">
-        <v>24.136833251025</v>
+        <v>7.14957705825</v>
       </c>
       <c r="S13">
-        <v>0.06853975313821779</v>
+        <v>0.04160568635465944</v>
       </c>
       <c r="T13">
-        <v>0.06853975313821781</v>
+        <v>0.04160568635465944</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1293,10 +1293,10 @@
         <v>1.185082</v>
       </c>
       <c r="I14">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J14">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N14">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q14">
-        <v>0.5749474043037778</v>
+        <v>0.386637742828</v>
       </c>
       <c r="R14">
-        <v>5.174526638733999</v>
+        <v>3.479739685452</v>
       </c>
       <c r="S14">
-        <v>0.01469375765815919</v>
+        <v>0.02024972341289993</v>
       </c>
       <c r="T14">
-        <v>0.0146937576581592</v>
+        <v>0.02024972341289992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1355,10 +1355,10 @@
         <v>1.185082</v>
       </c>
       <c r="I15">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J15">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,10 +1373,10 @@
         <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P15">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q15">
         <v>0.04114512530955555</v>
@@ -1385,10 +1385,10 @@
         <v>0.370306127786</v>
       </c>
       <c r="S15">
-        <v>0.001051533576093456</v>
+        <v>0.002154930352152031</v>
       </c>
       <c r="T15">
-        <v>0.001051533576093457</v>
+        <v>0.00215493035215203</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1417,40 +1417,40 @@
         <v>1.185082</v>
       </c>
       <c r="I16">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J16">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N16">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q16">
-        <v>0.2787250976384444</v>
+        <v>0.1240198847062222</v>
       </c>
       <c r="R16">
-        <v>2.508525878746</v>
+        <v>1.116178962356</v>
       </c>
       <c r="S16">
-        <v>0.007123293378296851</v>
+        <v>0.006495404056085511</v>
       </c>
       <c r="T16">
-        <v>0.007123293378296855</v>
+        <v>0.006495404056085509</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1479,10 +1479,10 @@
         <v>1.185082</v>
       </c>
       <c r="I17">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J17">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N17">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q17">
-        <v>0.5568285539300001</v>
+        <v>0.2302960633295555</v>
       </c>
       <c r="R17">
-        <v>5.01145698537</v>
+        <v>2.072664569966</v>
       </c>
       <c r="S17">
-        <v>0.01423069965590745</v>
+        <v>0.01206150116487143</v>
       </c>
       <c r="T17">
-        <v>0.01423069965590745</v>
+        <v>0.01206150116487143</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1541,10 +1541,10 @@
         <v>1.185082</v>
       </c>
       <c r="I18">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J18">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N18">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q18">
-        <v>0.09685714688733334</v>
+        <v>0.1192981229908889</v>
       </c>
       <c r="R18">
-        <v>0.871714321986</v>
+        <v>1.073683106918</v>
       </c>
       <c r="S18">
-        <v>0.002475348933084753</v>
+        <v>0.006248107017628363</v>
       </c>
       <c r="T18">
-        <v>0.002475348933084754</v>
+        <v>0.006248107017628362</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1603,10 +1603,10 @@
         <v>1.185082</v>
       </c>
       <c r="I19">
-        <v>0.04914171331903718</v>
+        <v>0.05301717064836096</v>
       </c>
       <c r="J19">
-        <v>0.0491417133190372</v>
+        <v>0.05301717064836094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N19">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q19">
-        <v>0.3743472574060001</v>
+        <v>0.1108854892244444</v>
       </c>
       <c r="R19">
-        <v>3.369125316654</v>
+        <v>0.9979694030199999</v>
       </c>
       <c r="S19">
-        <v>0.009567080117495476</v>
+        <v>0.005807504644723693</v>
       </c>
       <c r="T19">
-        <v>0.009567080117495479</v>
+        <v>0.005807504644723693</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H20">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I20">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J20">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N20">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P20">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q20">
-        <v>5.492103668326221</v>
+        <v>2.210176076362</v>
       </c>
       <c r="R20">
-        <v>49.42893301493599</v>
+        <v>19.891584687258</v>
       </c>
       <c r="S20">
-        <v>0.1403600394258574</v>
+        <v>0.1157555232781525</v>
       </c>
       <c r="T20">
-        <v>0.1403600394258575</v>
+        <v>0.1157555232781524</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H21">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I21">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J21">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.312473</v>
       </c>
       <c r="O21">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P21">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q21">
-        <v>0.3930329834604444</v>
+        <v>0.2352020031798888</v>
       </c>
       <c r="R21">
-        <v>3.537296851144</v>
+        <v>2.116818028619</v>
       </c>
       <c r="S21">
-        <v>0.01004462559079531</v>
+        <v>0.01231844432909265</v>
       </c>
       <c r="T21">
-        <v>0.01004462559079531</v>
+        <v>0.01231844432909265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H22">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I22">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J22">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N22">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P22">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q22">
-        <v>2.662482028331556</v>
+        <v>0.7089472956415556</v>
       </c>
       <c r="R22">
-        <v>23.962338254984</v>
+        <v>6.380525660774</v>
       </c>
       <c r="S22">
-        <v>0.06804425135353372</v>
+        <v>0.03713032914495187</v>
       </c>
       <c r="T22">
-        <v>0.06804425135353374</v>
+        <v>0.03713032914495186</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H23">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I23">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J23">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N23">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P23">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q23">
-        <v>5.31902591572</v>
+        <v>1.316464466009889</v>
       </c>
       <c r="R23">
-        <v>47.87123324148001</v>
+        <v>11.848180194089</v>
       </c>
       <c r="S23">
-        <v>0.1359367434273404</v>
+        <v>0.06894836785623994</v>
       </c>
       <c r="T23">
-        <v>0.1359367434273404</v>
+        <v>0.06894836785623994</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H24">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I24">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J24">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N24">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P24">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q24">
-        <v>0.9252141808826667</v>
+        <v>0.6819558159552221</v>
       </c>
       <c r="R24">
-        <v>8.326927627944</v>
+        <v>6.137602343597</v>
       </c>
       <c r="S24">
-        <v>0.02364542017933734</v>
+        <v>0.03571668030106156</v>
       </c>
       <c r="T24">
-        <v>0.02364542017933735</v>
+        <v>0.03571668030106156</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.773442666666667</v>
+        <v>2.258134333333333</v>
       </c>
       <c r="H25">
-        <v>11.320328</v>
+        <v>6.774403</v>
       </c>
       <c r="I25">
-        <v>0.4694192581217752</v>
+        <v>0.3030673657112068</v>
       </c>
       <c r="J25">
-        <v>0.4694192581217753</v>
+        <v>0.3030673657112067</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N25">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P25">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q25">
-        <v>3.575899169624</v>
+        <v>0.633865834481111</v>
       </c>
       <c r="R25">
-        <v>32.183092526616</v>
+        <v>5.704792510329999</v>
       </c>
       <c r="S25">
-        <v>0.09138817814491092</v>
+        <v>0.03319802080170833</v>
       </c>
       <c r="T25">
-        <v>0.09138817814491094</v>
+        <v>0.03319802080170833</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H26">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I26">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J26">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N26">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P26">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q26">
-        <v>0.3622839809311111</v>
+        <v>0.3303174935700001</v>
       </c>
       <c r="R26">
-        <v>3.260555828379999</v>
+        <v>2.97285744213</v>
       </c>
       <c r="S26">
-        <v>0.00925878259365495</v>
+        <v>0.01730001275692956</v>
       </c>
       <c r="T26">
-        <v>0.009258782593654955</v>
+        <v>0.01730001275692956</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H27">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I27">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J27">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.312473</v>
       </c>
       <c r="O27">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P27">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q27">
-        <v>0.02592623200222222</v>
+        <v>0.035151650135</v>
       </c>
       <c r="R27">
-        <v>0.23333608802</v>
+        <v>0.316364851215</v>
       </c>
       <c r="S27">
-        <v>0.0006625889032252852</v>
+        <v>0.001841028730238147</v>
       </c>
       <c r="T27">
-        <v>0.0006625889032252856</v>
+        <v>0.001841028730238147</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,46 +2155,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H28">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I28">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J28">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N28">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P28">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q28">
-        <v>0.1756293483577778</v>
+        <v>0.10595431571</v>
       </c>
       <c r="R28">
-        <v>1.58066413522</v>
+        <v>0.9535888413900002</v>
       </c>
       <c r="S28">
-        <v>0.004488506362689999</v>
+        <v>0.005549239895301807</v>
       </c>
       <c r="T28">
-        <v>0.004488506362690002</v>
+        <v>0.005549239895301806</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H29">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I29">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J29">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N29">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P29">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q29">
-        <v>0.3508669901</v>
+        <v>0.196749592685</v>
       </c>
       <c r="R29">
-        <v>3.1578029109</v>
+        <v>1.770746334165</v>
       </c>
       <c r="S29">
-        <v>0.008967001997374295</v>
+        <v>0.01030454193201813</v>
       </c>
       <c r="T29">
-        <v>0.008967001997374298</v>
+        <v>0.01030454193201813</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H30">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I30">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J30">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N30">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P30">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q30">
-        <v>0.06103130911333333</v>
+        <v>0.101920357505</v>
       </c>
       <c r="R30">
-        <v>0.54928178202</v>
+        <v>0.9172832175450001</v>
       </c>
       <c r="S30">
-        <v>0.001559758786557984</v>
+        <v>0.005337965803659937</v>
       </c>
       <c r="T30">
-        <v>0.001559758786557984</v>
+        <v>0.005337965803659936</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2489133333333333</v>
+        <v>0.337485</v>
       </c>
       <c r="H31">
-        <v>0.74674</v>
+        <v>1.012455</v>
       </c>
       <c r="I31">
-        <v>0.03096501592620411</v>
+        <v>0.04529433364846171</v>
       </c>
       <c r="J31">
-        <v>0.03096501592620412</v>
+        <v>0.0452943336484617</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N31">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P31">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q31">
-        <v>0.23588247142</v>
+        <v>0.09473316445</v>
       </c>
       <c r="R31">
-        <v>2.12294224278</v>
+        <v>0.8525984800500001</v>
       </c>
       <c r="S31">
-        <v>0.006028377282701594</v>
+        <v>0.004961544530314128</v>
       </c>
       <c r="T31">
-        <v>0.006028377282701596</v>
+        <v>0.004961544530314128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.187816</v>
+      </c>
+      <c r="H32">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J32">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.978762</v>
+      </c>
+      <c r="N32">
+        <v>2.936286</v>
+      </c>
+      <c r="O32">
+        <v>0.3819465121442868</v>
+      </c>
+      <c r="P32">
+        <v>0.3819465121442868</v>
+      </c>
+      <c r="Q32">
+        <v>0.183827163792</v>
+      </c>
+      <c r="R32">
+        <v>1.654444474128</v>
+      </c>
+      <c r="S32">
+        <v>0.009627744035899319</v>
+      </c>
+      <c r="T32">
+        <v>0.009627744035899315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.187816</v>
+      </c>
+      <c r="H33">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J33">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.312473</v>
+      </c>
+      <c r="O33">
+        <v>0.0406458950147437</v>
+      </c>
+      <c r="P33">
+        <v>0.04064589501474371</v>
+      </c>
+      <c r="Q33">
+        <v>0.01956247632266666</v>
+      </c>
+      <c r="R33">
+        <v>0.176062286904</v>
+      </c>
+      <c r="S33">
+        <v>0.001024563023537069</v>
+      </c>
+      <c r="T33">
+        <v>0.001024563023537069</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.187816</v>
+      </c>
+      <c r="H34">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J34">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.3139526666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.9418580000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.1225151017425393</v>
+      </c>
+      <c r="P34">
+        <v>0.1225151017425393</v>
+      </c>
+      <c r="Q34">
+        <v>0.05896533404266667</v>
+      </c>
+      <c r="R34">
+        <v>0.530688006384</v>
+      </c>
+      <c r="S34">
+        <v>0.003088244040997389</v>
+      </c>
+      <c r="T34">
+        <v>0.003088244040997389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.187816</v>
+      </c>
+      <c r="H35">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J35">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.5829876666666666</v>
+      </c>
+      <c r="N35">
+        <v>1.748963</v>
+      </c>
+      <c r="O35">
+        <v>0.2275017888991087</v>
+      </c>
+      <c r="P35">
+        <v>0.2275017888991087</v>
+      </c>
+      <c r="Q35">
+        <v>0.1094944116026666</v>
+      </c>
+      <c r="R35">
+        <v>0.9854497044239998</v>
+      </c>
+      <c r="S35">
+        <v>0.005734648495500294</v>
+      </c>
+      <c r="T35">
+        <v>0.005734648495500294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.187816</v>
+      </c>
+      <c r="H36">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J36">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3019996666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.905999</v>
+      </c>
+      <c r="O36">
+        <v>0.117850631054404</v>
+      </c>
+      <c r="P36">
+        <v>0.117850631054404</v>
+      </c>
+      <c r="Q36">
+        <v>0.05672036939466666</v>
+      </c>
+      <c r="R36">
+        <v>0.510483324552</v>
+      </c>
+      <c r="S36">
+        <v>0.002970666504823013</v>
+      </c>
+      <c r="T36">
+        <v>0.002970666504823013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.187816</v>
+      </c>
+      <c r="H37">
+        <v>0.5634479999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.02520704792366915</v>
+      </c>
+      <c r="J37">
+        <v>0.02520704792366914</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.2807033333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.8421099999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.1095400711449175</v>
+      </c>
+      <c r="P37">
+        <v>0.1095400711449176</v>
+      </c>
+      <c r="Q37">
+        <v>0.05272057725333332</v>
+      </c>
+      <c r="R37">
+        <v>0.4744851952799999</v>
+      </c>
+      <c r="S37">
+        <v>0.002761181822912065</v>
+      </c>
+      <c r="T37">
+        <v>0.002761181822912064</v>
       </c>
     </row>
   </sheetData>
